--- a/data/Bases_PIB_IBGE.xlsx
+++ b/data/Bases_PIB_IBGE.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedero\Pedro_Henrique\1-Cursos_Extracurriculares\04-Machine_Learning\03-Cases\01-4Intelligence\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedero\Pedro_Henrique\1-Cursos_Extracurriculares\04-Machine_Learning\03-Cases\01-4Intelligence_Test_Case\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156A545A-FC31-467D-A3E7-089ACC93BC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95846C6D-BE83-403B-810B-7E5466346755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIB-total" sheetId="1" r:id="rId1"/>
-    <sheet name="PIB-per_capta" sheetId="3" r:id="rId2"/>
+    <sheet name="PIB-per_capita" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -71,10 +71,10 @@
     <t>PIB (10^6) [R$]</t>
   </si>
   <si>
-    <t>PIB per capta [R$]</t>
-  </si>
-  <si>
     <t>ano</t>
+  </si>
+  <si>
+    <t>PIB per capita [R$]</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -480,7 +480,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>15</v>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,10 +627,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
